--- a/Data/Exp 3 Column Experiment ColEx Data/ColEx_data_avgs_formatted.xlsx
+++ b/Data/Exp 3 Column Experiment ColEx Data/ColEx_data_avgs_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/Exp 3 Column Experiment ColEx Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C2D82-7291-AE4F-8C44-B7D3FAE57B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F6B72-15E4-2145-A5E9-16C7677A326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="3440" windowWidth="27240" windowHeight="16440" xr2:uid="{F1942397-F921-9945-B667-02B42FF940E8}"/>
+    <workbookView xWindow="7320" yWindow="3440" windowWidth="27240" windowHeight="16440" xr2:uid="{F1942397-F921-9945-B667-02B42FF940E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Timepoint</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>S_ppm_sd</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -511,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFCBDCC-0A8D-BC40-A001-8CAC4799DB78}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,12 +685,6 @@
       <c r="Z2">
         <v>2.7218295849141789</v>
       </c>
-      <c r="AA2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
       <c r="AC2">
         <v>1.8243542199682452</v>
       </c>
@@ -780,12 +771,6 @@
       <c r="Z3">
         <v>1.2060840686238454</v>
       </c>
-      <c r="AA3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>33</v>
-      </c>
       <c r="AC3">
         <v>1.1713512709023028</v>
       </c>
@@ -872,12 +857,6 @@
       <c r="Z4">
         <v>0.84250960710857892</v>
       </c>
-      <c r="AA4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>33</v>
-      </c>
       <c r="AC4">
         <v>0.98664212274570318</v>
       </c>
@@ -964,12 +943,6 @@
       <c r="Z5">
         <v>0.6481149331714261</v>
       </c>
-      <c r="AA5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>33</v>
-      </c>
       <c r="AC5">
         <v>0.89474249730818323</v>
       </c>
@@ -1056,12 +1029,6 @@
       <c r="Z6">
         <v>0.39841146881120515</v>
       </c>
-      <c r="AA6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>33</v>
-      </c>
       <c r="AC6">
         <v>0.85470701691956064</v>
       </c>
@@ -1148,12 +1115,6 @@
       <c r="Z7">
         <v>0.45818892930249883</v>
       </c>
-      <c r="AA7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>33</v>
-      </c>
       <c r="AC7">
         <v>0.79950658183827783</v>
       </c>
@@ -1240,12 +1201,6 @@
       <c r="Z8">
         <v>0.44417394524118881</v>
       </c>
-      <c r="AA8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>33</v>
-      </c>
       <c r="AC8">
         <v>0.72974779025204184</v>
       </c>
@@ -1332,12 +1287,6 @@
       <c r="Z9">
         <v>0.43274632210551361</v>
       </c>
-      <c r="AA9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>33</v>
-      </c>
       <c r="AC9">
         <v>0.68031003795396983</v>
       </c>
@@ -1424,12 +1373,6 @@
       <c r="Z10">
         <v>0.42888121636644994</v>
       </c>
-      <c r="AA10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>33</v>
-      </c>
       <c r="AC10">
         <v>0.62207661193415531</v>
       </c>
@@ -1516,12 +1459,6 @@
       <c r="Z11">
         <v>0.5034605718207813</v>
       </c>
-      <c r="AA11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>33</v>
-      </c>
       <c r="AC11">
         <v>0.63269208021901735</v>
       </c>
@@ -1608,12 +1545,6 @@
       <c r="Z12">
         <v>0.46661295775394268</v>
       </c>
-      <c r="AA12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>33</v>
-      </c>
       <c r="AC12">
         <v>0.5917467025488351</v>
       </c>
@@ -1700,12 +1631,6 @@
       <c r="Z13">
         <v>0.37148457791703104</v>
       </c>
-      <c r="AA13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>33</v>
-      </c>
       <c r="AC13">
         <v>0.5802213369824134</v>
       </c>
@@ -1884,12 +1809,6 @@
       <c r="Z15">
         <v>26.130549144267931</v>
       </c>
-      <c r="AA15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>33</v>
-      </c>
       <c r="AC15">
         <v>66.582028511129764</v>
       </c>
@@ -1976,12 +1895,6 @@
       <c r="Z16">
         <v>12.951885094232555</v>
       </c>
-      <c r="AA16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>33</v>
-      </c>
       <c r="AC16">
         <v>42.307999397674429</v>
       </c>
@@ -2068,12 +1981,6 @@
       <c r="Z17">
         <v>5.6228951356278625</v>
       </c>
-      <c r="AA17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>33</v>
-      </c>
       <c r="AC17">
         <v>29.255026085932617</v>
       </c>
@@ -2160,12 +2067,6 @@
       <c r="Z18">
         <v>2.5529694803090406</v>
       </c>
-      <c r="AA18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>33</v>
-      </c>
       <c r="AC18">
         <v>21.840473013754661</v>
       </c>
@@ -2252,12 +2153,6 @@
       <c r="Z19">
         <v>0.96445719816905373</v>
       </c>
-      <c r="AA19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>33</v>
-      </c>
       <c r="AC19">
         <v>15.660877282953866</v>
       </c>
@@ -2344,12 +2239,6 @@
       <c r="Z20">
         <v>0.44479423950086738</v>
       </c>
-      <c r="AA20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>33</v>
-      </c>
       <c r="AC20">
         <v>11.515498668206561</v>
       </c>
@@ -2436,12 +2325,6 @@
       <c r="Z21">
         <v>0.44515452387996574</v>
       </c>
-      <c r="AA21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>33</v>
-      </c>
       <c r="AC21">
         <v>8.0177352740152923</v>
       </c>
@@ -2528,12 +2411,6 @@
       <c r="Z22">
         <v>0.75659341724317675</v>
       </c>
-      <c r="AA22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>33</v>
-      </c>
       <c r="AC22">
         <v>6.0075632775369012</v>
       </c>
@@ -2620,12 +2497,6 @@
       <c r="Z23">
         <v>0.87127796651132039</v>
       </c>
-      <c r="AA23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>33</v>
-      </c>
       <c r="AC23">
         <v>4.6482125175578934</v>
       </c>
@@ -2712,12 +2583,6 @@
       <c r="Z24">
         <v>0.61914915036130636</v>
       </c>
-      <c r="AA24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>33</v>
-      </c>
       <c r="AC24">
         <v>2.9448562468577832</v>
       </c>
@@ -2804,12 +2669,6 @@
       <c r="Z25">
         <v>0.57548173412008319</v>
       </c>
-      <c r="AA25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>33</v>
-      </c>
       <c r="AC25">
         <v>2.1625883566811845</v>
       </c>
@@ -2824,11 +2683,41 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>39.662771272443408</v>
+      </c>
+      <c r="D26">
+        <v>7.1836854993053096</v>
+      </c>
+      <c r="E26">
+        <v>12.805200000000003</v>
+      </c>
+      <c r="F26">
+        <v>6.3827173836854101</v>
+      </c>
+      <c r="G26">
+        <v>6.2994000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0.32700198776154232</v>
+      </c>
       <c r="I26">
         <v>6.4194000000000004</v>
       </c>
       <c r="J26">
         <v>2.1577999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.44497999999999999</v>
+      </c>
+      <c r="L26">
+        <v>6.6661473131037416E-2</v>
+      </c>
+      <c r="M26">
+        <v>14.400187192433005</v>
+      </c>
+      <c r="N26">
+        <v>4.1005226476881065</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -2838,11 +2727,41 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>19.377016393442624</v>
+      </c>
+      <c r="D27">
+        <v>3.958342220030862</v>
+      </c>
+      <c r="E27">
+        <v>12.4772</v>
+      </c>
+      <c r="F27">
+        <v>3.840655503947211</v>
+      </c>
+      <c r="G27">
+        <v>6.2302000000000008</v>
+      </c>
+      <c r="H27">
+        <v>0.21187189525748792</v>
+      </c>
       <c r="I27">
         <v>9.3940000000000001</v>
       </c>
       <c r="J27">
         <v>3.2454999999999998</v>
+      </c>
+      <c r="K27">
+        <v>0.45969999999999994</v>
+      </c>
+      <c r="L27">
+        <v>5.9931502567515102E-2</v>
+      </c>
+      <c r="M27">
+        <v>20.720680821026988</v>
+      </c>
+      <c r="N27">
+        <v>7.6398916983269558</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -2852,11 +2771,41 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>18.285901639344264</v>
+      </c>
+      <c r="D28">
+        <v>5.2605824098716178</v>
+      </c>
+      <c r="E28">
+        <v>11.427199999999999</v>
+      </c>
+      <c r="F28">
+        <v>3.2191131076742248</v>
+      </c>
+      <c r="G28">
+        <v>6.2203999999999997</v>
+      </c>
+      <c r="H28">
+        <v>0.3067764658509517</v>
+      </c>
       <c r="I28">
         <v>9.6608000000000001</v>
       </c>
       <c r="J28">
         <v>3.7010999999999998</v>
+      </c>
+      <c r="K28">
+        <v>0.45454</v>
+      </c>
+      <c r="L28">
+        <v>4.1995154482392355E-2</v>
+      </c>
+      <c r="M28">
+        <v>21.214314450775994</v>
+      </c>
+      <c r="N28">
+        <v>7.9581935150280856</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -2866,11 +2815,41 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>18.930737704918034</v>
+      </c>
+      <c r="D29">
+        <v>6.0904538327622531</v>
+      </c>
+      <c r="E29">
+        <v>9.7122000000000011</v>
+      </c>
+      <c r="F29">
+        <v>1.7975813472552411</v>
+      </c>
+      <c r="G29">
+        <v>6.1031999999999993</v>
+      </c>
+      <c r="H29">
+        <v>0.31467316377473298</v>
+      </c>
       <c r="I29">
         <v>9.4760000000000009</v>
       </c>
       <c r="J29">
         <v>3.5626000000000002</v>
+      </c>
+      <c r="K29">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="L29">
+        <v>3.3437179905009926E-2</v>
+      </c>
+      <c r="M29">
+        <v>20.58761467593029</v>
+      </c>
+      <c r="N29">
+        <v>7.3397005965246747</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -2880,11 +2859,41 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>19.324983606557378</v>
+      </c>
+      <c r="D30">
+        <v>3.5353047446004231</v>
+      </c>
+      <c r="E30">
+        <v>9.3568000000000016</v>
+      </c>
+      <c r="F30">
+        <v>1.80098436972673</v>
+      </c>
+      <c r="G30">
+        <v>6.1558000000000002</v>
+      </c>
+      <c r="H30">
+        <v>0.39703740377954333</v>
+      </c>
       <c r="I30">
         <v>9.4179999999999993</v>
       </c>
       <c r="J30">
         <v>3.8166000000000002</v>
+      </c>
+      <c r="K30">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="L30">
+        <v>4.3210820404153409E-2</v>
+      </c>
+      <c r="M30">
+        <v>19.809067983211968</v>
+      </c>
+      <c r="N30">
+        <v>6.9771872079832473</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -2894,11 +2903,41 @@
       <c r="B31">
         <v>6</v>
       </c>
+      <c r="C31">
+        <v>22.735573770491804</v>
+      </c>
+      <c r="D31">
+        <v>5.5026152317425527</v>
+      </c>
+      <c r="E31">
+        <v>8.9384000000000015</v>
+      </c>
+      <c r="F31">
+        <v>1.3550477113371284</v>
+      </c>
+      <c r="G31">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.30205380315433894</v>
+      </c>
       <c r="I31">
         <v>9.4434000000000005</v>
       </c>
       <c r="J31">
         <v>3.8759999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.47826000000000002</v>
+      </c>
+      <c r="L31">
+        <v>8.124517216425832E-2</v>
+      </c>
+      <c r="M31">
+        <v>19.134345619147641</v>
+      </c>
+      <c r="N31">
+        <v>5.9903164324218769</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
@@ -2908,81 +2947,261 @@
       <c r="B32">
         <v>7</v>
       </c>
+      <c r="C32">
+        <v>16.938546448087433</v>
+      </c>
+      <c r="D32">
+        <v>4.7979640334722617</v>
+      </c>
+      <c r="E32">
+        <v>9.1404000000000014</v>
+      </c>
+      <c r="F32">
+        <v>1.4080398786966144</v>
+      </c>
+      <c r="G32">
+        <v>6.0494000000000003</v>
+      </c>
+      <c r="H32">
+        <v>0.20243838568809047</v>
+      </c>
       <c r="I32">
         <v>9.2235999999999994</v>
       </c>
       <c r="J32">
         <v>3.5293999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>0.52319999999999989</v>
+      </c>
+      <c r="L32">
+        <v>4.8265515640050931E-2</v>
+      </c>
+      <c r="M32">
+        <v>17.272545278874436</v>
+      </c>
+      <c r="N32">
+        <v>5.3407837635841311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
+      <c r="C33">
+        <v>629.50857142857137</v>
+      </c>
+      <c r="D33">
+        <v>1362.1853113922434</v>
+      </c>
+      <c r="E33">
+        <v>8.1801999999999992</v>
+      </c>
+      <c r="F33">
+        <v>1.499087956058617</v>
+      </c>
+      <c r="G33">
+        <v>6.2454000000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.15983679175959442</v>
+      </c>
       <c r="I33">
         <v>9.1235999999999997</v>
       </c>
       <c r="J33">
         <v>3.7538999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0.51188</v>
+      </c>
+      <c r="L33">
+        <v>8.0107970889293764E-2</v>
+      </c>
+      <c r="M33">
+        <v>17.361427644751068</v>
+      </c>
+      <c r="N33">
+        <v>5.980837628484271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
+      <c r="C34">
+        <v>20.093676814988292</v>
+      </c>
+      <c r="D34">
+        <v>8.5410860753940216</v>
+      </c>
+      <c r="E34">
+        <v>7.6234000000000011</v>
+      </c>
+      <c r="F34">
+        <v>0.72093987266623016</v>
+      </c>
+      <c r="G34">
+        <v>6.2071999999999994</v>
+      </c>
+      <c r="H34">
+        <v>0.17407383490921297</v>
+      </c>
       <c r="I34">
         <v>8.2197999999999993</v>
       </c>
       <c r="J34">
         <v>2.7090999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="L34">
+        <v>4.6441360875839985E-2</v>
+      </c>
+      <c r="M34">
+        <v>16.136440752391461</v>
+      </c>
+      <c r="N34">
+        <v>4.8015059217861236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
+      <c r="C35">
+        <v>23.192123341139737</v>
+      </c>
+      <c r="D35">
+        <v>13.897701529584888</v>
+      </c>
+      <c r="E35">
+        <v>7.8886000000000012</v>
+      </c>
+      <c r="F35">
+        <v>0.8858277484928998</v>
+      </c>
+      <c r="G35">
+        <v>6.1890000000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.26864753860774487</v>
+      </c>
       <c r="I35">
         <v>8.2997999999999994</v>
       </c>
       <c r="J35">
         <v>3.0510000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>0.47924</v>
+      </c>
+      <c r="L35">
+        <v>0.12292185729153315</v>
+      </c>
+      <c r="M35">
+        <v>18.270144634391993</v>
+      </c>
+      <c r="N35">
+        <v>8.3533321830571481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
+      <c r="C36">
+        <v>21.700355191256829</v>
+      </c>
+      <c r="D36">
+        <v>14.627966490892168</v>
+      </c>
+      <c r="E36">
+        <v>8.5032000000000014</v>
+      </c>
+      <c r="F36">
+        <v>0.98470589517885321</v>
+      </c>
+      <c r="G36">
+        <v>6.1390000000000002</v>
+      </c>
+      <c r="H36">
+        <v>0.39120582817744426</v>
+      </c>
       <c r="I36">
         <v>8.8526000000000007</v>
       </c>
       <c r="J36">
         <v>3.1585999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>0.40932000000000002</v>
+      </c>
+      <c r="L36">
+        <v>6.2034280845351474E-2</v>
+      </c>
+      <c r="M36">
+        <v>21.522513874458308</v>
+      </c>
+      <c r="N36">
+        <v>7.243428255903301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
+      <c r="C37">
+        <v>25.644131147540985</v>
+      </c>
+      <c r="D37">
+        <v>13.307593399161188</v>
+      </c>
+      <c r="E37">
+        <v>7.8805999999999985</v>
+      </c>
+      <c r="F37">
+        <v>1.0918275046911146</v>
+      </c>
+      <c r="G37">
+        <v>6.0668000000000006</v>
+      </c>
+      <c r="H37">
+        <v>0.16200833311900989</v>
+      </c>
       <c r="I37">
         <v>8.4448000000000008</v>
       </c>
       <c r="J37">
         <v>3.0840000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L37">
+        <v>6.740548939070154E-2</v>
+      </c>
+      <c r="M37">
+        <v>20.650302698261203</v>
+      </c>
+      <c r="N37">
+        <v>5.5851687026472749</v>
       </c>
     </row>
   </sheetData>
